--- a/data/05_input/zm.dn21a.xlsx
+++ b/data/05_input/zm.dn21a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/5E115F85-6979-409B-8D62-ACB5E3385FF2/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/Zmays_B73/05_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/16DA24F4-3551-48E5-88C4-EA6E89D49FA3/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1DD323-3855-9845-98E4-43FE79A1CB72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6781DD-290D-FF40-BD52-9B044E4DAB5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8340" yWindow="1680" windowWidth="16420" windowHeight="18080" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>SampleID</t>
   </si>
@@ -45,12 +45,6 @@
     <t>paired</t>
   </si>
   <si>
-    <t>spots</t>
-  </si>
-  <si>
-    <t>avgLength</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -63,102 +57,6 @@
     <t>r2</t>
   </si>
   <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-541_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-547_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-545_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-542_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-548_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-546_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-543_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-541_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-547_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-544_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-542_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-548_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-545_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-543_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-546_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-544_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-541_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-547_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-545_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-542_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-548_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-546_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-543_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-541_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-547_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-544_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-542_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-548_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-545_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-543_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L3_B5GMAIfxaRAAAAAAA-546_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/A632_WGS/V300095105_L4_B5GMAIfxaRAAAAAAA-544_2.fq.gz</t>
-  </si>
-  <si>
     <t>s01</t>
   </si>
   <si>
@@ -211,6 +109,102 @@
   </si>
   <si>
     <t>A632</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-541_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-541_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-547_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-547_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-545_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-545_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-542_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-542_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-548_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-548_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-546_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-546_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-543_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-543_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-541_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-541_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-547_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-547_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-544_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-544_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-542_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-542_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-548_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-548_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-545_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-545_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-543_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-543_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-546_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L3_B5GMAIfxaRAAAAAAA-546_2.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-544_1.fq.gz</t>
+  </si>
+  <si>
+    <t>V300095105_L4_B5GMAIfxaRAAAAAAA-544_2.fq.gz</t>
   </si>
 </sst>
 </file>
@@ -568,11 +562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,7 +574,7 @@
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,297 +591,291 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="J10" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="J11" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="J12" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="J13" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="J14" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="J15" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="J16" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" t="s">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="L15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="J17" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
